--- a/Bitacoras/Parcial_03/Bitacora_Fisica_4_03_Tercer_Parcial_Evaluacion_Continua.xlsx
+++ b/Bitacoras/Parcial_03/Bitacora_Fisica_4_03_Tercer_Parcial_Evaluacion_Continua.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_4\Bitacoras\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0EADB7-EF67-48B9-B8FE-7113F2DDA2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C434C45-33D6-4DCD-9FE0-8613B7B18B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{20D3B616-98D2-497E-9ED4-CC46A78EFA3D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{20D3B616-98D2-497E-9ED4-CC46A78EFA3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Faltas" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Concentrado" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Concentrado!$A$2:$K$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Concentrado!$A$2:$L$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="51">
   <si>
     <t>Matrícula</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Eval_Continua</t>
+  </si>
+  <si>
+    <t>Ej_10_Resis</t>
   </si>
 </sst>
 </file>
@@ -2152,7 +2155,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V13"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,22 +2286,22 @@
         <v>1</v>
       </c>
       <c r="R2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="2">
         <v>0.8</v>
       </c>
       <c r="T2" s="2">
         <f>SUM(E2:S2)</f>
-        <v>11.55</v>
+        <v>12.55</v>
       </c>
       <c r="U2" s="3">
         <f>(T2/15)*10</f>
-        <v>7.7</v>
+        <v>8.3666666666666671</v>
       </c>
       <c r="V2" s="3">
         <f>U2+1</f>
-        <v>8.6999999999999993</v>
+        <v>9.3666666666666671</v>
       </c>
       <c r="X2" t="s">
         <v>44</v>
@@ -3105,14 +3108,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14C8135-C5BD-4ED5-B35D-43CDC901F6DA}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6465" ySplit="1080" topLeftCell="H1" activePane="bottomRight"/>
-      <selection activeCell="B2" sqref="B2"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <pane xSplit="6465" ySplit="1080" topLeftCell="I3" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="F2" sqref="F1:H1048576"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3122,12 +3124,13 @@
     <col min="4" max="4" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="10.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" s="2">
         <v>5</v>
       </c>
@@ -3141,11 +3144,14 @@
         <v>4</v>
       </c>
       <c r="G1" s="2">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2">
         <f>SUM(C1:F1)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3165,22 +3171,25 @@
         <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80178045</v>
       </c>
@@ -3200,25 +3209,28 @@
         <v>4</v>
       </c>
       <c r="G3" s="2">
-        <f>SUM(C3:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <f>SUM(C3:G3)</f>
         <v>18.8</v>
       </c>
-      <c r="H3" s="3">
-        <f>(G3/$G$1)*10</f>
+      <c r="I3" s="3">
+        <f>(H3/$H$1)*10</f>
         <v>8.5454545454545467</v>
       </c>
-      <c r="I3" s="3">
-        <v>8.6999999999999993</v>
-      </c>
       <c r="J3" s="3">
-        <f>H3*0.4+I3*0.6</f>
-        <v>8.6381818181818186</v>
-      </c>
-      <c r="K3" s="2">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="K3" s="3">
+        <f>I3*0.4+J3*0.6</f>
+        <v>9.0401818181818179</v>
+      </c>
+      <c r="L3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20197413</v>
       </c>
@@ -3238,25 +3250,28 @@
         <v>4</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G14" si="0">SUM(C4:F4)</f>
-        <v>19.3</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" ref="H4:H14" si="1">(G4/$G$1)*10</f>
-        <v>8.7727272727272734</v>
+        <v>2.7</v>
+      </c>
+      <c r="H4" s="2">
+        <f>SUM(C4:G4)</f>
+        <v>22</v>
       </c>
       <c r="I4" s="3">
+        <f t="shared" ref="I4:I14" si="0">(H4/$H$1)*10</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
         <v>4.8666666666666671</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" ref="J4:J14" si="2">H4*0.4+I4*0.6</f>
-        <v>6.4290909090909096</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K14" si="1">I4*0.4+J4*0.6</f>
+        <v>6.92</v>
+      </c>
+      <c r="L4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20270657</v>
       </c>
@@ -3276,25 +3291,28 @@
         <v>4</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f>SUM(C5:G5)</f>
         <v>19.2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>8.7272727272727266</v>
+      </c>
+      <c r="J5" s="3">
+        <v>6.7000000000000011</v>
+      </c>
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
-        <v>8.7272727272727266</v>
-      </c>
-      <c r="I5" s="3">
-        <v>6.7000000000000011</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="2"/>
         <v>7.5109090909090916</v>
       </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>80204265</v>
       </c>
@@ -3314,25 +3332,28 @@
         <v>4</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="H6" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="H6" s="2">
+        <f>SUM(C6:G6)</f>
+        <v>22.000000000000004</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>10.000000000000002</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="K6" s="3">
         <f t="shared" si="1"/>
-        <v>8.7272727272727284</v>
-      </c>
-      <c r="I6" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="2"/>
-        <v>6.6109090909090913</v>
-      </c>
-      <c r="K6" s="2">
+        <v>7.120000000000001</v>
+      </c>
+      <c r="L6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20228454</v>
       </c>
@@ -3352,25 +3373,28 @@
         <v>4</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <f>SUM(C7:G7)</f>
         <v>13.3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>6.0454545454545459</v>
+      </c>
+      <c r="J7" s="3">
+        <v>7.5333333333333341</v>
+      </c>
+      <c r="K7" s="3">
         <f t="shared" si="1"/>
-        <v>6.0454545454545459</v>
-      </c>
-      <c r="I7" s="3">
-        <v>7.5333333333333341</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="2"/>
         <v>6.9381818181818193</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20194829</v>
       </c>
@@ -3390,25 +3414,28 @@
         <v>4</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>17.8</v>
-      </c>
-      <c r="H8" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="H8" s="2">
+        <f>SUM(C8:G8)</f>
+        <v>22</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
-        <v>8.0909090909090899</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="2"/>
-        <v>6.2363636363636363</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20195555</v>
       </c>
@@ -3428,25 +3455,28 @@
         <v>4</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ref="H9:H14" si="2">SUM(C9:G9)</f>
         <v>18.8</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>8.5454545454545467</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
-        <v>8.5454545454545467</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7.166666666666667</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="2"/>
         <v>7.7181818181818187</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20198334</v>
       </c>
@@ -3466,25 +3496,28 @@
         <v>4</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0909090909090908</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v>4.0909090909090908</v>
-      </c>
-      <c r="I10" s="3">
-        <v>6.166666666666667</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="2"/>
         <v>5.3363636363636369</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10188042</v>
       </c>
@@ -3504,25 +3537,28 @@
         <v>4</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="H11" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>22.000000000000004</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>10.000000000000002</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
-        <v>8.7272727272727284</v>
-      </c>
-      <c r="I11" s="3">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="2"/>
-        <v>5.6909090909090914</v>
-      </c>
-      <c r="K11" s="2">
+        <v>6.2000000000000011</v>
+      </c>
+      <c r="L11" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>80209587</v>
       </c>
@@ -3542,25 +3578,28 @@
         <v>4</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="H12" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9.6666666666666679</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I12" s="3">
-        <v>9.6666666666666679</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="K12" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L12" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10185845</v>
       </c>
@@ -3580,25 +3619,28 @@
         <v>4</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
         <v>19.8</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J13" s="3">
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I13" s="3">
-        <v>8.3333333333333321</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="2"/>
         <v>8.6</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20184819</v>
       </c>
@@ -3618,27 +3660,30 @@
         <v>4</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-      <c r="H14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7.6666666666666661</v>
+      </c>
+      <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>8.8636363636363633</v>
-      </c>
-      <c r="I14" s="3">
-        <v>7.6666666666666661</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="2"/>
-        <v>8.1454545454545446</v>
-      </c>
-      <c r="K14" s="2">
+        <v>8.2363636363636363</v>
+      </c>
+      <c r="L14" s="2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K14" xr:uid="{E14C8135-C5BD-4ED5-B35D-43CDC901F6DA}"/>
-  <conditionalFormatting sqref="C3:F14">
+  <autoFilter ref="A2:L14" xr:uid="{E14C8135-C5BD-4ED5-B35D-43CDC901F6DA}"/>
+  <conditionalFormatting sqref="C3:G14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
